--- a/backend/checkpoints/polygon-ETH-TEL-14.xlsx
+++ b/backend/checkpoints/polygon-ETH-TEL-14.xlsx
@@ -3912,7 +3912,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3945,7 +3945,7 @@
         <v>550361.79</v>
       </c>
       <c r="D2" t="str">
-        <v>555030.06</v>
+        <v>474850.38</v>
       </c>
       <c r="E2" t="str">
         <v>16707382</v>
@@ -3979,7 +3979,7 @@
         <v>12738.73</v>
       </c>
       <c r="D4" t="str">
-        <v>84637.77</v>
+        <v>72410.99</v>
       </c>
       <c r="E4" t="str">
         <v>2547746</v>
@@ -3990,27 +3990,27 @@
         <v>0x0AB4F882E219A33fcE9252b6213aD1146d4354d9</v>
       </c>
       <c r="B5" t="str">
-        <v>0.001648245072261921</v>
+        <v>0.003078134515545425</v>
       </c>
       <c r="C5" t="str">
-        <v>679.04</v>
+        <v>1387.81</v>
       </c>
       <c r="D5" t="str">
-        <v>2267.27</v>
+        <v>5893.47</v>
       </c>
       <c r="E5" t="str">
-        <v>68249</v>
+        <v>207359</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>0x40f81795f44b96BF88E16E055f2283B9cAEd9466</v>
+        <v>0x8F1c51E98Af7C7dbB24654ACB05781E0e96e008F</v>
       </c>
       <c r="B6" t="str">
-        <v>0.009925390088756489</v>
+        <v>0</v>
       </c>
       <c r="C6" t="str">
-        <v>4652.9</v>
+        <v>0</v>
       </c>
       <c r="D6" t="str">
         <v>0</v>
@@ -4021,13 +4021,13 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>0xBa2ACC7b677dd133F8B6e5cEde8ea7Fd9C1c6795</v>
+        <v>0x40f81795f44b96BF88E16E055f2283B9cAEd9466</v>
       </c>
       <c r="B7" t="str">
-        <v>0.09593403807798132</v>
+        <v>0.009925390088756489</v>
       </c>
       <c r="C7" t="str">
-        <v>46399.42</v>
+        <v>4652.9</v>
       </c>
       <c r="D7" t="str">
         <v>0</v>
@@ -4038,13 +4038,13 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>0xabF76381Ab5538598AA4cd77d01De16c3F48a54A</v>
+        <v>0xBa2ACC7b677dd133F8B6e5cEde8ea7Fd9C1c6795</v>
       </c>
       <c r="B8" t="str">
-        <v>0.003610862712354212</v>
+        <v>0.09593403807798132</v>
       </c>
       <c r="C8" t="str">
-        <v>1528.11</v>
+        <v>46399.42</v>
       </c>
       <c r="D8" t="str">
         <v>0</v>
@@ -4055,41 +4055,92 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>0x3663b2EE275616bfA14e77c69dc02b79e6C580F0</v>
+        <v>0xabF76381Ab5538598AA4cd77d01De16c3F48a54A</v>
       </c>
       <c r="B9" t="str">
-        <v>0.001918346229755556</v>
+        <v>0.003610862712354212</v>
       </c>
       <c r="C9" t="str">
-        <v>954.81</v>
+        <v>1528.11</v>
       </c>
       <c r="D9" t="str">
-        <v>6213.02</v>
+        <v>0</v>
       </c>
       <c r="E9" t="str">
-        <v>187023</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>0x92119de4787cb947A4A93FEEC7c19C3AFe1b5729</v>
+        <v>0xa614A83132a2e7368aDa71dA9331817c33706770</v>
       </c>
       <c r="B10" t="str">
+        <v>0.004622415337704327</v>
+      </c>
+      <c r="C10" t="str">
+        <v>1756.31</v>
+      </c>
+      <c r="D10" t="str">
+        <v>0</v>
+      </c>
+      <c r="E10" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>0x93Cf0a22a26895650A8AaE960Bf85a01ec6A551C</v>
+      </c>
+      <c r="B11" t="str">
+        <v>0.027949695693435708</v>
+      </c>
+      <c r="C11" t="str">
+        <v>21347.04</v>
+      </c>
+      <c r="D11" t="str">
+        <v>89677.79</v>
+      </c>
+      <c r="E11" t="str">
+        <v>3155270</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>0x3663b2EE275616bfA14e77c69dc02b79e6C580F0</v>
+      </c>
+      <c r="B12" t="str">
+        <v>0.001918346229755556</v>
+      </c>
+      <c r="C12" t="str">
+        <v>954.81</v>
+      </c>
+      <c r="D12" t="str">
+        <v>5315.49</v>
+      </c>
+      <c r="E12" t="str">
+        <v>187023</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>0x92119de4787cb947A4A93FEEC7c19C3AFe1b5729</v>
+      </c>
+      <c r="B13" t="str">
         <v>0.283885962211825142</v>
       </c>
-      <c r="C10" t="str">
+      <c r="C13" t="str">
         <v>138922.96</v>
       </c>
-      <c r="D10" t="str">
-        <v>0</v>
-      </c>
-      <c r="E10" t="str">
+      <c r="D13" t="str">
+        <v>0</v>
+      </c>
+      <c r="E13" t="str">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E10"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E13"/>
   </ignoredErrors>
 </worksheet>
 </file>